--- a/Config/Datas/RecipeDatas/Recipe.xlsx
+++ b/Config/Datas/RecipeDatas/Recipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\RecipeDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB2EBF-5CF6-4061-BED2-41EB03B79986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9445D-B8B4-4702-A428-C980E72EF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,19 +91,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注释列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木头+树莓 = 石头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedCardList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,16 +178,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,24 +467,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="12.9140625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -489,27 +492,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -517,78 +523,85 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H4" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="b">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="b">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1</v>
       </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/RecipeDatas/Recipe.xlsx
+++ b/Config/Datas/RecipeDatas/Recipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\RecipeDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9445D-B8B4-4702-A428-C980E72EF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D097120-8F4F-4A3D-AC60-3D1C35234A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,42 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火堆+树莓 = 灰烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire,wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火堆+木头 = 灰烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire,fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,21 +506,21 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -515,7 +551,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -546,7 +582,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -559,10 +595,10 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -594,7 +630,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1"/>
     </row>
   </sheetData>
